--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf18-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf18-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf18</t>
+  </si>
+  <si>
+    <t>Fgfr4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf18</t>
-  </si>
-  <si>
-    <t>Fgfr4</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4765323333333333</v>
+        <v>8.770835333333332</v>
       </c>
       <c r="H2">
-        <v>1.429597</v>
+        <v>26.312506</v>
       </c>
       <c r="I2">
-        <v>0.04733670697480491</v>
+        <v>0.9145494540267</v>
       </c>
       <c r="J2">
-        <v>0.04733670697480491</v>
+        <v>0.9145494540267</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.132884</v>
+        <v>0.08378199999999998</v>
       </c>
       <c r="N2">
-        <v>0.398652</v>
+        <v>0.251346</v>
       </c>
       <c r="O2">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="P2">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="Q2">
-        <v>0.06332352258266667</v>
+        <v>0.7348381258973331</v>
       </c>
       <c r="R2">
-        <v>0.569911703244</v>
+        <v>6.613543133075999</v>
       </c>
       <c r="S2">
-        <v>0.0005659434554447038</v>
+        <v>0.006924414892879549</v>
       </c>
       <c r="T2">
-        <v>0.0005659434554447038</v>
+        <v>0.006924414892879549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4765323333333333</v>
+        <v>8.770835333333332</v>
       </c>
       <c r="H3">
-        <v>1.429597</v>
+        <v>26.312506</v>
       </c>
       <c r="I3">
-        <v>0.04733670697480491</v>
+        <v>0.9145494540267</v>
       </c>
       <c r="J3">
-        <v>0.04733670697480491</v>
+        <v>0.9145494540267</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.07352966666666666</v>
+        <v>0.07352966666666667</v>
       </c>
       <c r="N3">
         <v>0.220589</v>
       </c>
       <c r="O3">
-        <v>0.006615533976389703</v>
+        <v>0.006644889460697858</v>
       </c>
       <c r="P3">
-        <v>0.006615533976389702</v>
+        <v>0.006644889460697857</v>
       </c>
       <c r="Q3">
-        <v>0.03503926362588888</v>
+        <v>0.6449165984482222</v>
       </c>
       <c r="R3">
-        <v>0.315353372633</v>
+        <v>5.804249386034</v>
       </c>
       <c r="S3">
-        <v>0.0003131575933222253</v>
+        <v>0.006077080028348999</v>
       </c>
       <c r="T3">
-        <v>0.0003131575933222253</v>
+        <v>0.006077080028348998</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4765323333333333</v>
+        <v>8.770835333333332</v>
       </c>
       <c r="H4">
-        <v>1.429597</v>
+        <v>26.312506</v>
       </c>
       <c r="I4">
-        <v>0.04733670697480491</v>
+        <v>0.9145494540267</v>
       </c>
       <c r="J4">
-        <v>0.04733670697480491</v>
+        <v>0.9145494540267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>32.724855</v>
       </c>
       <c r="O4">
-        <v>0.9814287662799436</v>
+        <v>0.9857837158351757</v>
       </c>
       <c r="P4">
-        <v>0.9814287662799435</v>
+        <v>0.9857837158351755</v>
       </c>
       <c r="Q4">
-        <v>5.198150503715</v>
+        <v>95.67477150406998</v>
       </c>
       <c r="R4">
-        <v>46.78335453343499</v>
+        <v>861.07294353663</v>
       </c>
       <c r="S4">
-        <v>0.04645760592603798</v>
+        <v>0.9015479591054715</v>
       </c>
       <c r="T4">
-        <v>0.04645760592603797</v>
+        <v>0.9015479591054714</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.770835333333332</v>
+        <v>0.8194993333333332</v>
       </c>
       <c r="H5">
-        <v>26.312506</v>
+        <v>2.458498</v>
       </c>
       <c r="I5">
-        <v>0.8712576945074703</v>
+        <v>0.08545054597330007</v>
       </c>
       <c r="J5">
-        <v>0.8712576945074703</v>
+        <v>0.08545054597330005</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.132884</v>
+        <v>0.08378199999999998</v>
       </c>
       <c r="N5">
-        <v>0.398652</v>
+        <v>0.251346</v>
       </c>
       <c r="O5">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="P5">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="Q5">
-        <v>1.165503682434667</v>
+        <v>0.06865929314533331</v>
       </c>
       <c r="R5">
-        <v>10.489533141912</v>
+        <v>0.6179336383079999</v>
       </c>
       <c r="S5">
-        <v>0.01041649539489066</v>
+        <v>0.0006469798112469632</v>
       </c>
       <c r="T5">
-        <v>0.01041649539489066</v>
+        <v>0.0006469798112469631</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.770835333333332</v>
+        <v>0.8194993333333332</v>
       </c>
       <c r="H6">
-        <v>26.312506</v>
+        <v>2.458498</v>
       </c>
       <c r="I6">
-        <v>0.8712576945074703</v>
+        <v>0.08545054597330007</v>
       </c>
       <c r="J6">
-        <v>0.8712576945074703</v>
+        <v>0.08545054597330005</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07352966666666666</v>
+        <v>0.07352966666666667</v>
       </c>
       <c r="N6">
         <v>0.220589</v>
       </c>
       <c r="O6">
-        <v>0.006615533976389703</v>
+        <v>0.006644889460697858</v>
       </c>
       <c r="P6">
-        <v>0.006615533976389702</v>
+        <v>0.006644889460697857</v>
       </c>
       <c r="Q6">
-        <v>0.6449165984482221</v>
+        <v>0.06025751281355556</v>
       </c>
       <c r="R6">
-        <v>5.804249386033999</v>
+        <v>0.542317615322</v>
       </c>
       <c r="S6">
-        <v>0.00576383488020513</v>
+        <v>0.0005678094323488594</v>
       </c>
       <c r="T6">
-        <v>0.005763834880205129</v>
+        <v>0.0005678094323488593</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.770835333333332</v>
+        <v>0.8194993333333332</v>
       </c>
       <c r="H7">
-        <v>26.312506</v>
+        <v>2.458498</v>
       </c>
       <c r="I7">
-        <v>0.8712576945074703</v>
+        <v>0.08545054597330007</v>
       </c>
       <c r="J7">
-        <v>0.8712576945074703</v>
+        <v>0.08545054597330005</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>32.724855</v>
       </c>
       <c r="O7">
-        <v>0.9814287662799436</v>
+        <v>0.9857837158351757</v>
       </c>
       <c r="P7">
-        <v>0.9814287662799435</v>
+        <v>0.9857837158351755</v>
       </c>
       <c r="Q7">
-        <v>95.67477150406998</v>
+        <v>8.939332285309998</v>
       </c>
       <c r="R7">
-        <v>861.07294353663</v>
+        <v>80.45399056778999</v>
       </c>
       <c r="S7">
-        <v>0.8550773642323745</v>
+        <v>0.08423575672970425</v>
       </c>
       <c r="T7">
-        <v>0.8550773642323745</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.8194993333333332</v>
-      </c>
-      <c r="H8">
-        <v>2.458498</v>
-      </c>
-      <c r="I8">
-        <v>0.08140559851772487</v>
-      </c>
-      <c r="J8">
-        <v>0.08140559851772486</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.132884</v>
-      </c>
-      <c r="N8">
-        <v>0.398652</v>
-      </c>
-      <c r="O8">
-        <v>0.01195569974366677</v>
-      </c>
-      <c r="P8">
-        <v>0.01195569974366677</v>
-      </c>
-      <c r="Q8">
-        <v>0.1088983494106667</v>
-      </c>
-      <c r="R8">
-        <v>0.9800851446959998</v>
-      </c>
-      <c r="S8">
-        <v>0.0009732608933314029</v>
-      </c>
-      <c r="T8">
-        <v>0.0009732608933314028</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.8194993333333332</v>
-      </c>
-      <c r="H9">
-        <v>2.458498</v>
-      </c>
-      <c r="I9">
-        <v>0.08140559851772487</v>
-      </c>
-      <c r="J9">
-        <v>0.08140559851772486</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.07352966666666666</v>
-      </c>
-      <c r="N9">
-        <v>0.220589</v>
-      </c>
-      <c r="O9">
-        <v>0.006615533976389703</v>
-      </c>
-      <c r="P9">
-        <v>0.006615533976389702</v>
-      </c>
-      <c r="Q9">
-        <v>0.06025751281355554</v>
-      </c>
-      <c r="R9">
-        <v>0.5423176153219998</v>
-      </c>
-      <c r="S9">
-        <v>0.0005385415028623481</v>
-      </c>
-      <c r="T9">
-        <v>0.000538541502862348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.8194993333333332</v>
-      </c>
-      <c r="H10">
-        <v>2.458498</v>
-      </c>
-      <c r="I10">
-        <v>0.08140559851772487</v>
-      </c>
-      <c r="J10">
-        <v>0.08140559851772486</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>10.908285</v>
-      </c>
-      <c r="N10">
-        <v>32.724855</v>
-      </c>
-      <c r="O10">
-        <v>0.9814287662799436</v>
-      </c>
-      <c r="P10">
-        <v>0.9814287662799435</v>
-      </c>
-      <c r="Q10">
-        <v>8.939332285309998</v>
-      </c>
-      <c r="R10">
-        <v>80.45399056778999</v>
-      </c>
-      <c r="S10">
-        <v>0.07989379612153112</v>
-      </c>
-      <c r="T10">
-        <v>0.07989379612153111</v>
+        <v>0.08423575672970422</v>
       </c>
     </row>
   </sheetData>
